--- a/testdata/TestExecution.xlsx
+++ b/testdata/TestExecution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Sno</t>
   </si>
@@ -59,9 +59,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>TS002_AggrementVerfication</t>
-  </si>
-  <si>
     <t>https://test.spendflo.com/</t>
   </si>
   <si>
@@ -74,13 +71,7 @@
     <t>./testdata/Testdata.xlsx</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>TS002_AddAggrement</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -160,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,9 +171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -549,13 +537,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>4</v>
@@ -566,59 +554,35 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>